--- a/tools/tuning.xlsx
+++ b/tools/tuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\OneDrive - 南方科技大学\Code\ME338\nmt-multi30k-pytorch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10799\OneDrive - 南方科技大学\Code\ME338\nmt-multi30k-pytorch\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F47ADDE-DC24-469A-9E66-2D57F6F52AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F7B286-907F-40DA-AA8E-CF608069C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="907" yWindow="-98" windowWidth="19710" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,31 +511,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B5" activeCellId="1" sqref="B4 B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="30.125" customWidth="1"/>
-    <col min="7" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="19.25" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="14.73046875" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="30.1328125" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="19.265625" customWidth="1"/>
+    <col min="10" max="10" width="10.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.1328125" customWidth="1"/>
+    <col min="13" max="13" width="17.73046875" customWidth="1"/>
+    <col min="14" max="14" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="21.4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -619,7 +619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -659,7 +659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -699,7 +699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -739,7 +739,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -779,7 +779,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -819,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -859,7 +859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -899,7 +899,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -937,63 +937,141 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+    <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>32.86</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.843</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>512</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1024</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>128</v>
+      </c>
+      <c r="M11" s="1">
+        <v>50</v>
+      </c>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+    <row r="12" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>36.06</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.617</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>256</v>
+      </c>
+      <c r="I12" s="1">
+        <v>256</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>256</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50</v>
+      </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+    <row r="13" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>34.57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.589</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>256</v>
+      </c>
+      <c r="I13" s="1">
+        <v>512</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>128</v>
+      </c>
+      <c r="M13" s="1">
+        <v>50</v>
+      </c>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>32.86</v>
+        <v>33.69</v>
       </c>
       <c r="C14" s="1">
-        <v>1.843</v>
+        <v>1.849</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1011,37 +1089,35 @@
         <v>512</v>
       </c>
       <c r="I14" s="1">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="J14" s="1">
         <v>8</v>
       </c>
       <c r="K14" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="1">
         <v>128</v>
       </c>
       <c r="M14" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1">
-        <v>36.06</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.617</v>
+        <v>28</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1E-4</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -1050,10 +1126,10 @@
         <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I15" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="J15" s="1">
         <v>8</v>
@@ -1062,28 +1138,26 @@
         <v>0.1</v>
       </c>
       <c r="L15" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M15" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="1">
-        <v>34.57</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.589</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
@@ -1092,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="I16" s="1">
         <v>512</v>
@@ -1101,43 +1175,43 @@
         <v>8</v>
       </c>
       <c r="K16" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="1">
         <v>128</v>
       </c>
       <c r="M16" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
-        <v>33.69</v>
+        <v>31.78</v>
       </c>
       <c r="C17" s="1">
-        <v>1.849</v>
+        <v>1.79</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>512</v>
       </c>
       <c r="I17" s="1">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="J17" s="1">
         <v>8</v>
@@ -1153,171 +1227,97 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>33.28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.8480000000000001</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>512</v>
       </c>
       <c r="I18" s="1">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="J18" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K18" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="M18" s="1">
         <v>40</v>
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
+    <row r="19" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>512</v>
-      </c>
-      <c r="I19" s="1">
-        <v>512</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L19" s="1">
-        <v>128</v>
-      </c>
-      <c r="M19" s="1">
-        <v>40</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1">
-        <v>31.78</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>512</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1024</v>
-      </c>
-      <c r="J20" s="1">
-        <v>8</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="L20" s="1">
-        <v>128</v>
-      </c>
-      <c r="M20" s="1">
-        <v>40</v>
-      </c>
+    <row r="20" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1">
-        <v>33.28</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>512</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2048</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>256</v>
-      </c>
-      <c r="M21" s="1">
-        <v>40</v>
-      </c>
+    <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1349,7 +1349,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1365,7 +1365,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1381,7 +1381,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1413,7 +1413,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1429,7 +1429,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1445,7 +1445,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1461,54 +1461,6 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
